--- a/src/public/template/库存导入模板.xlsx
+++ b/src/public/template/库存导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>仓秘书库存导入模板</t>
   </si>
@@ -51,18 +51,18 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>LOCATION</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -112,7 +112,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,27 +120,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +131,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -159,34 +208,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -195,91 +264,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,55 +318,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,115 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,8 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +618,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,32 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -698,227 +701,215 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1243,19 +1234,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="2" width="22.5803571428571" customWidth="1"/>
-    <col min="3" max="4" width="25.9642857142857" customWidth="1"/>
-    <col min="5" max="6" width="25.9642857142857" customWidth="1"/>
-    <col min="7" max="8" width="46.9375" customWidth="1"/>
-    <col min="9" max="9" width="46.9375" customWidth="1"/>
+    <col min="3" max="6" width="25.9642857142857" customWidth="1"/>
+    <col min="7" max="9" width="46.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:9">
@@ -1263,140 +1252,500 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="37" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="16" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:9">
-      <c r="A5" s="12">
-        <v>10012</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>100</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:9">
-      <c r="A6" s="12">
-        <v>10013</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>200</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" ht="13.2" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" ht="13.2" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" ht="13.2" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="1:9">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:9">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
